--- a/outputs/SORs/SOR Testing_AMC Thomson Linear Motion - General (Move to AMC Linear Motion Division).xlsx
+++ b/outputs/SORs/SOR Testing_AMC Thomson Linear Motion - General (Move to AMC Linear Motion Division).xlsx
@@ -9,9 +9,9 @@
     <sheet name="Baja California Mexico" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Charlotte  North Carolina" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Cleveland Ohio" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Downers Grove Illinois" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Marengo Illinois" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Rock Road Radford Virginia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Marengo Illinois" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Rock Road Radford Virginia" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Wood Dale Illinois" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Kristianstad Sweden" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Apodaca Pmc Plant 2 Mexico" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Fremont California" sheetId="9" state="visible" r:id="rId9"/>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -125,13 +125,13 @@
     <t xml:space="preserve">Cleveland Ohio</t>
   </si>
   <si>
-    <t xml:space="preserve">Downers Grove Illinois</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marengo Illinois</t>
   </si>
   <si>
     <t xml:space="preserve">Rock Road Radford Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wood Dale Illinois</t>
   </si>
   <si>
     <t xml:space="preserve">Kristianstad Sweden</t>
@@ -586,7 +586,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -619,28 +619,28 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>0.0189</v>
+        <v>0.0185</v>
       </c>
       <c r="Q2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0.0183</v>
+        <v>0.018</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0.0185</v>
+        <v>0.0182</v>
       </c>
       <c r="T2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>0.0392</v>
+        <v>0.0385</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>0.0569</v>
+        <v>0.0559</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>0.0737</v>
+        <v>0.0723</v>
       </c>
     </row>
     <row r="3">
@@ -657,7 +657,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -690,28 +690,28 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>0.01701</v>
+        <v>0.01665</v>
       </c>
       <c r="Q3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0.01647</v>
+        <v>0.0162</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0.01665</v>
+        <v>0.01638</v>
       </c>
       <c r="T3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>0.03528</v>
+        <v>0.03465</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>0.05121</v>
+        <v>0.05031</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>0.06633</v>
+        <v>0.06507</v>
       </c>
     </row>
     <row r="4">
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -917,7 +917,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -988,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1059,7 +1059,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1214,7 +1214,9 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1263,7 +1265,9 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1799,7 +1803,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1868,7 +1874,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1938,7 +1946,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -2009,7 +2017,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -2080,7 +2088,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -2231,7 +2239,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2263,28 +2273,28 @@
         <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.1587</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.1754</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="3">
@@ -2300,7 +2310,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2332,27 +2344,415 @@
         <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>0.15003</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.14283</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>0.15786</v>
       </c>
       <c r="W3" s="4" t="n">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.0971</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.0962</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.08739</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.08658</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,28 +2888,28 @@
         <v>0</v>
       </c>
       <c r="P2" s="5" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>0.1587</v>
+        <v>0</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="U2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0.1754</v>
+        <v>0</v>
       </c>
       <c r="W2" s="5" t="n">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2559,415 +2959,27 @@
         <v>0</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>0.15003</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>0.14283</v>
+        <v>0</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="5" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="U3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>0.15786</v>
+        <v>0</v>
       </c>
       <c r="W3" s="5" t="n">
-        <v>0.28125</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="5" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>0.0971</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5" t="n">
-        <v>0.0962</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>0.08739</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5" t="n">
-        <v>0.08658</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3069,7 +3081,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3138,7 +3152,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3292,7 +3308,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3359,7 +3377,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3793,7 +3813,9 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3862,7 +3884,9 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_AMC Thomson Linear Motion - General (Move to AMC Linear Motion Division).xlsx
+++ b/outputs/SORs/SOR Testing_AMC Thomson Linear Motion - General (Move to AMC Linear Motion Division).xlsx
@@ -737,20 +737,14 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>0.0833333333333333</v>
-      </c>
+        <v>0.6667</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="1" t="n">
         <v>0.0833333333333333</v>
       </c>
@@ -917,7 +911,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -988,7 +982,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1059,7 +1053,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1070,50 +1064,46 @@
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <v>1.3333</v>
-      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="n">
-        <v>0.7547</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1215,7 +1205,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1266,7 +1256,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1558,9 +1548,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2" t="n">
         <v>0</v>
       </c>
@@ -1946,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -2017,7 +2005,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -2088,7 +2076,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -2104,9 +2092,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="L6" s="3"/>
       <c r="M6" s="3" t="n">
         <v>0</v>
       </c>
@@ -2398,9 +2384,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" s="4"/>
       <c r="M4" s="4" t="n">
         <v>0</v>
       </c>
@@ -2563,7 +2547,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2634,7 +2618,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2705,7 +2689,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2719,9 +2703,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4"/>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4" t="n">
         <v>0</v>
       </c>
@@ -3814,7 +3796,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3885,7 +3867,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>

--- a/outputs/SORs/SOR Testing_AMC Thomson Linear Motion - General (Move to AMC Linear Motion Division).xlsx
+++ b/outputs/SORs/SOR Testing_AMC Thomson Linear Motion - General (Move to AMC Linear Motion Division).xlsx
@@ -586,7 +586,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -657,7 +657,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -746,37 +746,37 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.25</v>
+        <v>0.400025</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.25</v>
+        <v>0.400025</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.133341666666667</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.25</v>
+        <v>0.400025</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1</v>
+        <v>1.6001</v>
       </c>
     </row>
     <row r="5">
@@ -911,7 +911,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -982,7 +982,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1053,7 +1053,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1204,9 +1204,7 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="10" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="10"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1255,9 +1253,7 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1791,9 +1787,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1862,9 +1856,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1934,7 +1926,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -2005,7 +1997,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -2076,7 +2068,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -2547,7 +2539,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2618,7 +2610,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2689,7 +2681,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2836,9 +2828,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2907,9 +2897,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3063,9 +3051,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3134,9 +3120,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="6"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3290,9 +3274,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="7"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3359,9 +3341,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="7"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3795,9 +3775,7 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3866,9 +3844,7 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_AMC Thomson Linear Motion - General (Move to AMC Linear Motion Division).xlsx
+++ b/outputs/SORs/SOR Testing_AMC Thomson Linear Motion - General (Move to AMC Linear Motion Division).xlsx
@@ -745,38 +745,34 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1" t="n">
-        <v>0.133341666666667</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0.400025</v>
-      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.133341666666667</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.133341666666667</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.133341666666667</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.400025</v>
+        <v>0.33335</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.133341666666667</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.133341666666667</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.133341666666667</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.400025</v>
+        <v>0.33335</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1.6001</v>
+        <v>1.3334</v>
       </c>
     </row>
     <row r="5">
@@ -1545,12 +1541,8 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="2" t="n">
         <v>0</v>
       </c>
@@ -2085,12 +2077,8 @@
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="3" t="n">
         <v>0</v>
       </c>
@@ -2377,12 +2365,8 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="4" t="n">
         <v>0</v>
       </c>
@@ -3493,9 +3477,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3556,9 +3538,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3603,77 +3583,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/outputs/SORs/SOR Testing_AMC Thomson Linear Motion - General (Move to AMC Linear Motion Division).xlsx
+++ b/outputs/SORs/SOR Testing_AMC Thomson Linear Motion - General (Move to AMC Linear Motion Division).xlsx
@@ -747,32 +747,30 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1" t="n">
-        <v>0.111116666666667</v>
-      </c>
+      <c r="O4" s="1"/>
       <c r="P4" s="1" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.33335</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.33335</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1.3334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1065,18 +1063,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1" t="n">
         <v>0</v>
       </c>
@@ -1543,9 +1533,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="2"/>
       <c r="P4" s="2" t="n">
         <v>0</v>
       </c>
@@ -2079,9 +2067,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="O6" s="3"/>
       <c r="P6" s="3" t="n">
         <v>0</v>
       </c>
@@ -2367,9 +2353,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="4"/>
       <c r="P4" s="4" t="n">
         <v>0</v>
       </c>
@@ -2680,15 +2664,9 @@
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="4" t="n">
         <v>0</v>
       </c>
